--- a/src/test/java/rc25/mFormsAutomation/TestData/CreateInputType.xlsx
+++ b/src/test/java/rc25/mFormsAutomation/TestData/CreateInputType.xlsx
@@ -29,9 +29,6 @@
     <t>vmidha@astegic.com</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Automation input type100</t>
+  </si>
+  <si>
+    <t>Astegic1!</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -637,21 +637,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -675,41 +675,41 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1"/>
@@ -726,20 +726,20 @@
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -755,20 +755,20 @@
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -784,23 +784,23 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -815,23 +815,23 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -846,24 +846,24 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="9"/>
@@ -877,22 +877,22 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="9"/>
@@ -906,18 +906,18 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="9"/>
@@ -931,22 +931,22 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="9"/>
@@ -960,22 +960,22 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="9"/>
@@ -989,22 +989,22 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="9"/>
@@ -1018,22 +1018,22 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="9"/>
@@ -1047,25 +1047,25 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
@@ -1078,25 +1078,25 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
@@ -1109,16 +1109,16 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1136,16 +1136,16 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1190,16 +1190,16 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1217,16 +1217,16 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1244,16 +1244,16 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1271,16 +1271,16 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
